--- a/medicine/Psychotrope/Westerwald-Brauerei_H._Schneider/Westerwald-Brauerei_H._Schneider.xlsx
+++ b/medicine/Psychotrope/Westerwald-Brauerei_H._Schneider/Westerwald-Brauerei_H._Schneider.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Westerwald-Brauerei H. Schneider GmbH &amp; Co. KG est une brasserie à Hachenburg, en Rhénanie-Palatinat, qui brasse et vend ses bières sous les marques "Hachenburger" et "Westerwald Bräu".
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie est fondée en 1861[1] par le brasseur Heimborn Heinrich Schneider sous le nom de Brauerei H. Schneider dans le Grünschen Hof. En novembre 1902, la brasserie commence à faire de la pils. En 1909, Schneider cède la brasserie à son fils Heinrich. Dans le même temps, la société est rebaptisée Westerwald-Brauerei H. Schneider. Le changement de nom va de pair avec l'objectif stratégique de devenir la brasserie du Westerwald au-delà de Hachenburg. Cependant, en raison de la Première Guerre mondiale et des conséquences de la guerre, la brasserie reste au niveau d'une brasserie locale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie est fondée en 1861 par le brasseur Heimborn Heinrich Schneider sous le nom de Brauerei H. Schneider dans le Grünschen Hof. En novembre 1902, la brasserie commence à faire de la pils. En 1909, Schneider cède la brasserie à son fils Heinrich. Dans le même temps, la société est rebaptisée Westerwald-Brauerei H. Schneider. Le changement de nom va de pair avec l'objectif stratégique de devenir la brasserie du Westerwald au-delà de Hachenburg. Cependant, en raison de la Première Guerre mondiale et des conséquences de la guerre, la brasserie reste au niveau d'une brasserie locale.
 En 1948, la troisième génération, Heinrich et Rudolf Schneider, prend la direction de la brasserie. La production annuelle à cette époque est de 4 000 hl par an. En 1981, la production est à 180 000 hl par an. À partir de 1982, Heiner Schneider, la quatrième génération, dirige l'entreprise. En plus du Westerwald, la zone de distribution comprend également pour la première fois les régions voisines au nord. En tant que l'une des premières brasseries ouest-allemandes, la brasserie commence la Schwarzbier en 1994. Les productions chutent dans les années 1990 à 2000.
-En raison d'un incendie dans la cave de stockage de la brasserie en septembre 2006, elle doit être reconstruite. Jens Geimer, la cinquième génération, dirige la brasserie depuis 2009[1]. En 2011, la brasserie cesse d'utiliser des houblons amers et depuis lors, elle ne brasse qu'avec des houblons aromatiques purs et laisse les bières mûrir pendant 6 semaines[1].
+En raison d'un incendie dans la cave de stockage de la brasserie en septembre 2006, elle doit être reconstruite. Jens Geimer, la cinquième génération, dirige la brasserie depuis 2009. En 2011, la brasserie cesse d'utiliser des houblons amers et depuis lors, elle ne brasse qu'avec des houblons aromatiques purs et laisse les bières mûrir pendant 6 semaines.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hachenburger Pils (degré d'alcool 4,9 %)
 Hachenburger Weizen (degré d'alcool 5,1 %)
